--- a/database/industries/folad/kechad/cost/yearly.xlsx
+++ b/database/industries/folad/kechad/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8170EC15-26CF-4D87-8693-C189EB03F0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95592F8-E4DA-4D7E-991E-C58EE0767919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -762,95 +762,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>10326703</v>
+        <v>24009115</v>
       </c>
       <c r="F10" s="9">
-        <v>24009115</v>
+        <v>27117816</v>
       </c>
       <c r="G10" s="9">
-        <v>27117816</v>
+        <v>20982269</v>
       </c>
       <c r="H10" s="9">
-        <v>20982269</v>
+        <v>37888027</v>
       </c>
       <c r="I10" s="9">
-        <v>37888027</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86145917</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3399289</v>
+        <v>5851195</v>
       </c>
       <c r="F11" s="11">
-        <v>5851195</v>
+        <v>6352032</v>
       </c>
       <c r="G11" s="11">
-        <v>6352032</v>
+        <v>12086945</v>
       </c>
       <c r="H11" s="11">
-        <v>12086945</v>
+        <v>23314533</v>
       </c>
       <c r="I11" s="11">
-        <v>23314533</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35265756</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>9053720</v>
+        <v>15658761</v>
       </c>
       <c r="F12" s="9">
-        <v>15658761</v>
+        <v>18231515</v>
       </c>
       <c r="G12" s="9">
-        <v>18231515</v>
+        <v>61901434</v>
       </c>
       <c r="H12" s="9">
-        <v>61901434</v>
+        <v>107734269</v>
       </c>
       <c r="I12" s="9">
-        <v>107734269</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112056275</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>22779712</v>
+        <v>45519071</v>
       </c>
       <c r="F13" s="13">
-        <v>45519071</v>
+        <v>51701363</v>
       </c>
       <c r="G13" s="13">
-        <v>51701363</v>
+        <v>94970648</v>
       </c>
       <c r="H13" s="13">
-        <v>94970648</v>
+        <v>168936829</v>
       </c>
       <c r="I13" s="13">
-        <v>168936829</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>233467948</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -872,51 +872,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>22779712</v>
+        <v>45519071</v>
       </c>
       <c r="F15" s="13">
-        <v>45519071</v>
+        <v>51701363</v>
       </c>
       <c r="G15" s="13">
-        <v>51701363</v>
+        <v>94970648</v>
       </c>
       <c r="H15" s="13">
-        <v>94970648</v>
+        <v>168936829</v>
       </c>
       <c r="I15" s="13">
-        <v>168936829</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>233467948</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-17247</v>
+        <v>-104715</v>
       </c>
       <c r="F16" s="9">
-        <v>-104715</v>
+        <v>-131798</v>
       </c>
       <c r="G16" s="9">
-        <v>-131798</v>
+        <v>-206756</v>
       </c>
       <c r="H16" s="9">
-        <v>-206756</v>
+        <v>-524196</v>
       </c>
       <c r="I16" s="9">
-        <v>-524196</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1786200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,95 +938,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>22762465</v>
+        <v>45414356</v>
       </c>
       <c r="F18" s="15">
-        <v>45414356</v>
+        <v>51569565</v>
       </c>
       <c r="G18" s="15">
-        <v>51569565</v>
+        <v>94763892</v>
       </c>
       <c r="H18" s="15">
-        <v>94763892</v>
+        <v>168412633</v>
       </c>
       <c r="I18" s="15">
-        <v>168412633</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231681748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>2287707</v>
+        <v>946632</v>
       </c>
       <c r="F19" s="11">
-        <v>946632</v>
+        <v>2124741</v>
       </c>
       <c r="G19" s="11">
-        <v>2124741</v>
+        <v>2978774</v>
       </c>
       <c r="H19" s="11">
-        <v>2978774</v>
+        <v>4852545</v>
       </c>
       <c r="I19" s="11">
-        <v>4852545</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6875077</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-946632</v>
+        <v>-1919289</v>
       </c>
       <c r="F20" s="9">
-        <v>-1919289</v>
+        <v>-2978775</v>
       </c>
       <c r="G20" s="9">
-        <v>-2978775</v>
+        <v>-4852545</v>
       </c>
       <c r="H20" s="9">
-        <v>-4852545</v>
+        <v>-6875077</v>
       </c>
       <c r="I20" s="9">
-        <v>-6875077</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-19470868</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>24103540</v>
+        <v>44441699</v>
       </c>
       <c r="F21" s="13">
-        <v>44441699</v>
+        <v>50715531</v>
       </c>
       <c r="G21" s="13">
-        <v>50715531</v>
+        <v>92890121</v>
       </c>
       <c r="H21" s="13">
-        <v>92890121</v>
+        <v>166390101</v>
       </c>
       <c r="I21" s="13">
-        <v>166390101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219085957</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1048,29 +1048,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>24103540</v>
+        <v>44441699</v>
       </c>
       <c r="F23" s="13">
-        <v>44441699</v>
+        <v>50715531</v>
       </c>
       <c r="G23" s="13">
-        <v>50715531</v>
+        <v>92890121</v>
       </c>
       <c r="H23" s="13">
-        <v>92890121</v>
+        <v>166390101</v>
       </c>
       <c r="I23" s="13">
-        <v>166390101</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219085957</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1090,7 +1090,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1132,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1143,20 +1143,20 @@
       <c r="E29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+      <c r="F29" s="9">
+        <v>0</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
-        <v>0</v>
+      <c r="H29" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1167,20 +1167,20 @@
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
+      <c r="H30" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1188,23 +1188,23 @@
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>4182136</v>
       </c>
       <c r="F31" s="9">
-        <v>4182136</v>
+        <v>6498113</v>
       </c>
       <c r="G31" s="9">
-        <v>6498113</v>
+        <v>4932177</v>
       </c>
       <c r="H31" s="9">
-        <v>4932177</v>
+        <v>5878704</v>
       </c>
       <c r="I31" s="9">
-        <v>5878704</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3693709</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1212,23 +1212,23 @@
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>159033</v>
       </c>
       <c r="F32" s="11">
-        <v>159033</v>
+        <v>88959</v>
       </c>
       <c r="G32" s="11">
-        <v>88959</v>
-      </c>
-      <c r="H32" s="11">
         <v>217360</v>
       </c>
+      <c r="H32" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1236,15 +1236,15 @@
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>0</v>
       </c>
       <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
         <v>2613</v>
       </c>
+      <c r="G33" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="9" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1260,11 +1260,11 @@
         <v>25</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>26</v>
@@ -1276,29 +1276,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>0</v>
+        <v>4341169</v>
       </c>
       <c r="F35" s="15">
-        <v>4341169</v>
+        <v>6589685</v>
       </c>
       <c r="G35" s="15">
-        <v>6589685</v>
+        <v>5149537</v>
       </c>
       <c r="H35" s="15">
-        <v>5149537</v>
+        <v>5878704</v>
       </c>
       <c r="I35" s="15">
-        <v>5878704</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3693709</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1308,7 +1308,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1318,7 +1318,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1328,7 +1328,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1360,7 +1360,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
@@ -1371,20 +1371,20 @@
       <c r="E41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>26</v>
+      <c r="F41" s="9">
+        <v>1245117</v>
       </c>
       <c r="G41" s="9">
-        <v>1245117</v>
-      </c>
-      <c r="H41" s="9">
         <v>1251344</v>
       </c>
+      <c r="H41" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I41" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>27</v>
       </c>
@@ -1395,20 +1395,20 @@
       <c r="E42" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>26</v>
+      <c r="F42" s="11">
+        <v>2140112</v>
       </c>
       <c r="G42" s="11">
-        <v>2140112</v>
-      </c>
-      <c r="H42" s="11">
         <v>2171755</v>
       </c>
+      <c r="H42" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>28</v>
       </c>
@@ -1416,23 +1416,23 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>26</v>
+      <c r="E43" s="9">
+        <v>17480659</v>
       </c>
       <c r="F43" s="9">
-        <v>17480659</v>
+        <v>13605212</v>
       </c>
       <c r="G43" s="9">
-        <v>13605212</v>
+        <v>17476955</v>
       </c>
       <c r="H43" s="9">
-        <v>17476955</v>
+        <v>14729525</v>
       </c>
       <c r="I43" s="9">
-        <v>14729525</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13206149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>29</v>
       </c>
@@ -1440,23 +1440,23 @@
         <v>25</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>26</v>
+      <c r="E44" s="11">
+        <v>3768015</v>
       </c>
       <c r="F44" s="11">
-        <v>3768015</v>
+        <v>4039909</v>
       </c>
       <c r="G44" s="11">
-        <v>4039909</v>
-      </c>
-      <c r="H44" s="11">
         <v>3771086</v>
       </c>
+      <c r="H44" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I44" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
@@ -1464,15 +1464,15 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>26</v>
+      <c r="E45" s="9">
+        <v>60323</v>
       </c>
       <c r="F45" s="9">
-        <v>60323</v>
-      </c>
-      <c r="G45" s="9">
         <v>49625</v>
       </c>
+      <c r="G45" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H45" s="9" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>31</v>
       </c>
@@ -1488,12 +1488,12 @@
         <v>25</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="11">
+      <c r="E46" s="11">
         <v>2165547</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G46" s="11" t="s">
         <v>26</v>
       </c>
@@ -1504,29 +1504,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>23474544</v>
       </c>
       <c r="F47" s="15">
-        <v>23474544</v>
+        <v>21079975</v>
       </c>
       <c r="G47" s="15">
-        <v>21079975</v>
+        <v>24671140</v>
       </c>
       <c r="H47" s="15">
-        <v>24671140</v>
+        <v>14729525</v>
       </c>
       <c r="I47" s="15">
-        <v>14729525</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13206149</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1536,7 +1536,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1546,7 +1546,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1556,7 +1556,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>33</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1588,7 +1588,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1599,20 +1599,20 @@
       <c r="E53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>26</v>
+      <c r="F53" s="9">
+        <v>1245117</v>
       </c>
       <c r="G53" s="9">
-        <v>1245117</v>
-      </c>
-      <c r="H53" s="9">
         <v>1251344</v>
       </c>
+      <c r="H53" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I53" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -1623,20 +1623,20 @@
       <c r="E54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>26</v>
+      <c r="F54" s="11">
+        <v>2140112</v>
       </c>
       <c r="G54" s="11">
-        <v>2140112</v>
-      </c>
-      <c r="H54" s="11">
         <v>2171755</v>
       </c>
+      <c r="H54" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I54" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
@@ -1644,23 +1644,23 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>26</v>
+      <c r="E55" s="9">
+        <v>15164682</v>
       </c>
       <c r="F55" s="9">
-        <v>15164682</v>
+        <v>15171148</v>
       </c>
       <c r="G55" s="9">
-        <v>15171148</v>
+        <v>16530428</v>
       </c>
       <c r="H55" s="9">
-        <v>16530428</v>
+        <v>16223005</v>
       </c>
       <c r="I55" s="9">
-        <v>16223005</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16002850</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>29</v>
       </c>
@@ -1668,23 +1668,23 @@
         <v>25</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>26</v>
+      <c r="E56" s="11">
+        <v>3838089</v>
       </c>
       <c r="F56" s="11">
-        <v>3838089</v>
+        <v>3911508</v>
       </c>
       <c r="G56" s="11">
-        <v>3911508</v>
-      </c>
-      <c r="H56" s="11">
         <v>3906617</v>
       </c>
+      <c r="H56" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I56" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -1692,15 +1692,15 @@
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>54682</v>
       </c>
       <c r="F57" s="9">
-        <v>54682</v>
-      </c>
-      <c r="G57" s="9">
         <v>43070</v>
       </c>
+      <c r="G57" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H57" s="9" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>31</v>
       </c>
@@ -1716,12 +1716,12 @@
         <v>25</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="11">
+      <c r="E58" s="11">
         <v>2124637</v>
       </c>
+      <c r="F58" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G58" s="11" t="s">
         <v>26</v>
       </c>
@@ -1732,29 +1732,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
-        <v>0</v>
+        <v>21182090</v>
       </c>
       <c r="F59" s="15">
-        <v>21182090</v>
+        <v>22510955</v>
       </c>
       <c r="G59" s="15">
-        <v>22510955</v>
+        <v>23860144</v>
       </c>
       <c r="H59" s="15">
-        <v>23860144</v>
+        <v>16223005</v>
       </c>
       <c r="I59" s="15">
-        <v>16223005</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16002850</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1764,7 +1764,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1774,7 +1774,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1784,7 +1784,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>34</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1816,7 +1816,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
@@ -1827,20 +1827,20 @@
       <c r="E65" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>26</v>
+      <c r="F65" s="9">
+        <v>0</v>
       </c>
       <c r="G65" s="9">
         <v>0</v>
       </c>
-      <c r="H65" s="9">
-        <v>0</v>
+      <c r="H65" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -1851,20 +1851,20 @@
       <c r="E66" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>26</v>
+      <c r="F66" s="11">
+        <v>0</v>
       </c>
       <c r="G66" s="11">
         <v>0</v>
       </c>
-      <c r="H66" s="11">
-        <v>0</v>
+      <c r="H66" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>28</v>
       </c>
@@ -1872,23 +1872,23 @@
         <v>25</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>26</v>
+      <c r="E67" s="9">
+        <v>6498113</v>
       </c>
       <c r="F67" s="9">
-        <v>6498113</v>
+        <v>4932177</v>
       </c>
       <c r="G67" s="9">
-        <v>4932177</v>
+        <v>5878704</v>
       </c>
       <c r="H67" s="9">
-        <v>5878704</v>
+        <v>4385224</v>
       </c>
       <c r="I67" s="9">
-        <v>4385224</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>897008</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
@@ -1896,23 +1896,23 @@
         <v>25</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>26</v>
+      <c r="E68" s="11">
+        <v>88959</v>
       </c>
       <c r="F68" s="11">
-        <v>88959</v>
+        <v>217360</v>
       </c>
       <c r="G68" s="11">
-        <v>217360</v>
-      </c>
-      <c r="H68" s="11">
         <v>81829</v>
       </c>
+      <c r="H68" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I68" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>30</v>
       </c>
@@ -1920,15 +1920,15 @@
         <v>25</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>26</v>
+      <c r="E69" s="9">
+        <v>5641</v>
       </c>
       <c r="F69" s="9">
-        <v>5641</v>
-      </c>
-      <c r="G69" s="9">
         <v>9168</v>
       </c>
+      <c r="G69" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H69" s="9" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
@@ -1944,12 +1944,12 @@
         <v>25</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="11">
+      <c r="E70" s="11">
         <v>40910</v>
       </c>
+      <c r="F70" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G70" s="11" t="s">
         <v>26</v>
       </c>
@@ -1960,29 +1960,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>6633623</v>
       </c>
       <c r="F71" s="15">
-        <v>6633623</v>
+        <v>5158705</v>
       </c>
       <c r="G71" s="15">
-        <v>5158705</v>
+        <v>5960533</v>
       </c>
       <c r="H71" s="15">
-        <v>5960533</v>
+        <v>4385224</v>
       </c>
       <c r="I71" s="15">
-        <v>4385224</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>897008</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1992,7 +1992,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2012,7 +2012,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2044,7 +2044,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
@@ -2055,20 +2055,20 @@
       <c r="E77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>26</v>
+      <c r="F77" s="9">
+        <v>0</v>
       </c>
       <c r="G77" s="9">
         <v>0</v>
       </c>
-      <c r="H77" s="9">
-        <v>0</v>
+      <c r="H77" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -2079,20 +2079,20 @@
       <c r="E78" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>26</v>
+      <c r="F78" s="11">
+        <v>0</v>
       </c>
       <c r="G78" s="11">
         <v>0</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
+      <c r="H78" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>28</v>
       </c>
@@ -2100,23 +2100,23 @@
         <v>36</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>26</v>
+      <c r="E79" s="9">
+        <v>1608910</v>
       </c>
       <c r="F79" s="9">
-        <v>1608910</v>
+        <v>3338996</v>
       </c>
       <c r="G79" s="9">
-        <v>3338996</v>
+        <v>3314539</v>
       </c>
       <c r="H79" s="9">
-        <v>3314539</v>
+        <v>6076031</v>
       </c>
       <c r="I79" s="9">
-        <v>6076031</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10046031</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>29</v>
       </c>
@@ -2124,23 +2124,23 @@
         <v>36</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>26</v>
+      <c r="E80" s="11">
+        <v>211455</v>
       </c>
       <c r="F80" s="11">
-        <v>211455</v>
+        <v>149033</v>
       </c>
       <c r="G80" s="11">
-        <v>149033</v>
-      </c>
-      <c r="H80" s="11">
         <v>485858</v>
       </c>
+      <c r="H80" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I80" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>30</v>
       </c>
@@ -2148,15 +2148,15 @@
         <v>36</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>26</v>
+      <c r="E81" s="9">
+        <v>0</v>
       </c>
       <c r="F81" s="9">
-        <v>0</v>
-      </c>
-      <c r="G81" s="9">
         <v>55911</v>
       </c>
+      <c r="G81" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H81" s="9" t="s">
         <v>26</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>31</v>
       </c>
@@ -2172,11 +2172,11 @@
         <v>36</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="11">
-        <v>0</v>
+      <c r="E82" s="11">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>26</v>
@@ -2188,29 +2188,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>0</v>
+        <v>1820365</v>
       </c>
       <c r="F83" s="15">
-        <v>1820365</v>
+        <v>3543940</v>
       </c>
       <c r="G83" s="15">
-        <v>3543940</v>
+        <v>3800397</v>
       </c>
       <c r="H83" s="15">
-        <v>3800397</v>
+        <v>6076031</v>
       </c>
       <c r="I83" s="15">
-        <v>6076031</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10046031</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2220,7 +2220,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2230,7 +2230,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2240,7 +2240,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2272,7 +2272,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>24</v>
       </c>
@@ -2283,20 +2283,20 @@
       <c r="E89" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>26</v>
+      <c r="F89" s="9">
+        <v>731231</v>
       </c>
       <c r="G89" s="9">
-        <v>731231</v>
-      </c>
-      <c r="H89" s="9">
         <v>10190922</v>
       </c>
+      <c r="H89" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I89" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>27</v>
       </c>
@@ -2307,20 +2307,20 @@
       <c r="E90" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>26</v>
+      <c r="F90" s="11">
+        <v>6658555</v>
       </c>
       <c r="G90" s="11">
-        <v>6658555</v>
-      </c>
-      <c r="H90" s="11">
         <v>9706210</v>
       </c>
+      <c r="H90" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I90" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>28</v>
       </c>
@@ -2328,23 +2328,23 @@
         <v>36</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
+      <c r="E91" s="9">
+        <v>9681739</v>
       </c>
       <c r="F91" s="9">
-        <v>9681739</v>
+        <v>10257267</v>
       </c>
       <c r="G91" s="9">
-        <v>10257267</v>
+        <v>20140290</v>
       </c>
       <c r="H91" s="9">
-        <v>20140290</v>
+        <v>44012112</v>
       </c>
       <c r="I91" s="9">
-        <v>44012112</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>94398633</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>29</v>
       </c>
@@ -2352,23 +2352,23 @@
         <v>36</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>26</v>
+      <c r="E92" s="11">
+        <v>6367550</v>
       </c>
       <c r="F92" s="11">
-        <v>6367550</v>
+        <v>9080115</v>
       </c>
       <c r="G92" s="11">
-        <v>9080115</v>
-      </c>
-      <c r="H92" s="11">
         <v>12541582</v>
       </c>
+      <c r="H92" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I92" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>30</v>
       </c>
@@ -2376,15 +2376,15 @@
         <v>36</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
+      <c r="E93" s="9">
+        <v>536684</v>
       </c>
       <c r="F93" s="9">
-        <v>536684</v>
-      </c>
-      <c r="G93" s="9">
         <v>1076249</v>
       </c>
+      <c r="G93" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H93" s="9" t="s">
         <v>26</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>31</v>
       </c>
@@ -2400,12 +2400,12 @@
         <v>36</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" s="11">
+      <c r="E94" s="11">
         <v>9354074</v>
       </c>
+      <c r="F94" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G94" s="11" t="s">
         <v>26</v>
       </c>
@@ -2416,29 +2416,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>0</v>
+        <v>25940047</v>
       </c>
       <c r="F95" s="15">
-        <v>25940047</v>
+        <v>27803417</v>
       </c>
       <c r="G95" s="15">
-        <v>27803417</v>
+        <v>52579004</v>
       </c>
       <c r="H95" s="15">
-        <v>52579004</v>
+        <v>44012112</v>
       </c>
       <c r="I95" s="15">
-        <v>44012112</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>94398633</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2448,7 +2448,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2458,7 +2458,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>38</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2500,7 +2500,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2511,20 +2511,20 @@
       <c r="E101" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>26</v>
+      <c r="F101" s="9">
+        <v>731231</v>
       </c>
       <c r="G101" s="9">
-        <v>731231</v>
-      </c>
-      <c r="H101" s="9">
         <v>10190922</v>
       </c>
+      <c r="H101" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I101" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>27</v>
       </c>
@@ -2535,20 +2535,20 @@
       <c r="E102" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>26</v>
+      <c r="F102" s="11">
+        <v>6658555</v>
       </c>
       <c r="G102" s="11">
-        <v>6658555</v>
-      </c>
-      <c r="H102" s="11">
         <v>9706210</v>
       </c>
+      <c r="H102" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I102" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2556,23 +2556,23 @@
         <v>36</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
+      <c r="E103" s="9">
+        <v>7951653</v>
       </c>
       <c r="F103" s="9">
-        <v>7951653</v>
+        <v>10281724</v>
       </c>
       <c r="G103" s="9">
-        <v>10281724</v>
+        <v>17378797</v>
       </c>
       <c r="H103" s="9">
-        <v>17378797</v>
+        <v>37888027</v>
       </c>
       <c r="I103" s="9">
-        <v>37888027</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86145917</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>29</v>
       </c>
@@ -2580,23 +2580,23 @@
         <v>36</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>26</v>
+      <c r="E104" s="11">
+        <v>6429972</v>
       </c>
       <c r="F104" s="11">
-        <v>6429972</v>
+        <v>8743290</v>
       </c>
       <c r="G104" s="11">
-        <v>8743290</v>
-      </c>
-      <c r="H104" s="11">
         <v>12759694</v>
       </c>
+      <c r="H104" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I104" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>30</v>
       </c>
@@ -2604,15 +2604,15 @@
         <v>36</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>26</v>
+      <c r="E105" s="9">
+        <v>480773</v>
       </c>
       <c r="F105" s="9">
-        <v>480773</v>
-      </c>
-      <c r="G105" s="9">
         <v>908468</v>
       </c>
+      <c r="G105" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H105" s="9" t="s">
         <v>26</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>31</v>
       </c>
@@ -2628,12 +2628,12 @@
         <v>36</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="11">
+      <c r="E106" s="11">
         <v>9146717</v>
       </c>
+      <c r="F106" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G106" s="11" t="s">
         <v>26</v>
       </c>
@@ -2644,29 +2644,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>0</v>
+        <v>24009115</v>
       </c>
       <c r="F107" s="15">
-        <v>24009115</v>
+        <v>27323268</v>
       </c>
       <c r="G107" s="15">
-        <v>27323268</v>
+        <v>50035623</v>
       </c>
       <c r="H107" s="15">
-        <v>50035623</v>
+        <v>37888027</v>
       </c>
       <c r="I107" s="15">
-        <v>37888027</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86145917</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2676,7 +2676,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2686,7 +2686,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2696,7 +2696,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>39</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2728,7 +2728,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
@@ -2739,20 +2739,20 @@
       <c r="E113" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F113" s="9" t="s">
-        <v>26</v>
+      <c r="F113" s="9">
+        <v>0</v>
       </c>
       <c r="G113" s="9">
         <v>0</v>
       </c>
-      <c r="H113" s="9">
-        <v>0</v>
+      <c r="H113" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -2763,20 +2763,20 @@
       <c r="E114" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F114" s="11" t="s">
-        <v>26</v>
+      <c r="F114" s="11">
+        <v>0</v>
       </c>
       <c r="G114" s="11">
         <v>0</v>
       </c>
-      <c r="H114" s="11">
-        <v>0</v>
+      <c r="H114" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>28</v>
       </c>
@@ -2784,23 +2784,23 @@
         <v>36</v>
       </c>
       <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>26</v>
+      <c r="E115" s="9">
+        <v>3338996</v>
       </c>
       <c r="F115" s="9">
-        <v>3338996</v>
+        <v>3314539</v>
       </c>
       <c r="G115" s="9">
-        <v>3314539</v>
+        <v>6076032</v>
       </c>
       <c r="H115" s="9">
-        <v>6076032</v>
+        <v>12200116</v>
       </c>
       <c r="I115" s="9">
-        <v>12200116</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18298747</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>29</v>
       </c>
@@ -2808,23 +2808,23 @@
         <v>36</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
+      <c r="E116" s="11">
+        <v>149033</v>
       </c>
       <c r="F116" s="11">
-        <v>149033</v>
+        <v>485858</v>
       </c>
       <c r="G116" s="11">
-        <v>485858</v>
-      </c>
-      <c r="H116" s="11">
         <v>267746</v>
       </c>
+      <c r="H116" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I116" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
@@ -2832,15 +2832,15 @@
         <v>36</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
+      <c r="E117" s="9">
+        <v>55911</v>
       </c>
       <c r="F117" s="9">
-        <v>55911</v>
-      </c>
-      <c r="G117" s="9">
         <v>223692</v>
       </c>
+      <c r="G117" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H117" s="9" t="s">
         <v>26</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>31</v>
       </c>
@@ -2856,12 +2856,12 @@
         <v>36</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
+      <c r="E118" s="11">
         <v>207357</v>
       </c>
+      <c r="F118" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G118" s="11" t="s">
         <v>26</v>
       </c>
@@ -2872,29 +2872,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>0</v>
+        <v>3751297</v>
       </c>
       <c r="F119" s="15">
-        <v>3751297</v>
+        <v>4024089</v>
       </c>
       <c r="G119" s="15">
-        <v>4024089</v>
+        <v>6343778</v>
       </c>
       <c r="H119" s="15">
-        <v>6343778</v>
+        <v>12200116</v>
       </c>
       <c r="I119" s="15">
-        <v>12200116</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18298747</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2904,7 +2904,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2914,7 +2914,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2924,7 +2924,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>40</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2956,7 +2956,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>28</v>
       </c>
@@ -2964,23 +2964,23 @@
         <v>41</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>26</v>
+      <c r="E125" s="9">
+        <v>384710</v>
       </c>
       <c r="F125" s="9">
-        <v>384710</v>
+        <v>513841</v>
       </c>
       <c r="G125" s="9">
-        <v>513841</v>
+        <v>672024</v>
       </c>
       <c r="H125" s="9">
-        <v>672024</v>
+        <v>1033566</v>
       </c>
       <c r="I125" s="9">
-        <v>1033566</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2719768</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>29</v>
       </c>
@@ -2988,23 +2988,23 @@
         <v>41</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>26</v>
+      <c r="E126" s="11">
+        <v>1329630</v>
       </c>
       <c r="F126" s="11">
-        <v>1329630</v>
+        <v>1675300</v>
       </c>
       <c r="G126" s="11">
-        <v>1675300</v>
-      </c>
-      <c r="H126" s="11">
         <v>2235269</v>
       </c>
+      <c r="H126" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I126" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>30</v>
       </c>
@@ -3015,12 +3015,12 @@
       <c r="E127" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="9">
+      <c r="F127" s="9">
         <v>21397245</v>
       </c>
+      <c r="G127" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H127" s="9" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3038,7 +3038,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3058,7 +3058,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>42</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3090,7 +3090,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3101,20 +3101,20 @@
       <c r="E133" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F133" s="9" t="s">
-        <v>26</v>
+      <c r="F133" s="9">
+        <v>587279</v>
       </c>
       <c r="G133" s="9">
-        <v>587279</v>
-      </c>
-      <c r="H133" s="9">
         <v>8143981</v>
       </c>
+      <c r="H133" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I133" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3125,20 +3125,20 @@
       <c r="E134" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>26</v>
+      <c r="F134" s="11">
+        <v>3111311</v>
       </c>
       <c r="G134" s="11">
-        <v>3111311</v>
-      </c>
-      <c r="H134" s="11">
         <v>4469293</v>
       </c>
+      <c r="H134" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I134" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -3146,23 +3146,23 @@
         <v>41</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>26</v>
+      <c r="E135" s="9">
+        <v>553854</v>
       </c>
       <c r="F135" s="9">
-        <v>553854</v>
+        <v>753922</v>
       </c>
       <c r="G135" s="9">
-        <v>753922</v>
+        <v>1152391</v>
       </c>
       <c r="H135" s="9">
-        <v>1152391</v>
+        <v>2988020</v>
       </c>
       <c r="I135" s="9">
-        <v>2988020</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7148082</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3170,23 +3170,23 @@
         <v>41</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>26</v>
+      <c r="E136" s="11">
+        <v>1689895</v>
       </c>
       <c r="F136" s="11">
-        <v>1689895</v>
+        <v>2247604</v>
       </c>
       <c r="G136" s="11">
-        <v>2247604</v>
-      </c>
-      <c r="H136" s="11">
         <v>3325722</v>
       </c>
+      <c r="H136" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I136" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>30</v>
       </c>
@@ -3194,15 +3194,15 @@
         <v>41</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>26</v>
+      <c r="E137" s="9">
+        <v>8896839</v>
       </c>
       <c r="F137" s="9">
-        <v>8896839</v>
-      </c>
-      <c r="G137" s="9">
         <v>21687637</v>
       </c>
+      <c r="G137" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H137" s="9" t="s">
         <v>26</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>31</v>
       </c>
@@ -3218,12 +3218,12 @@
         <v>41</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="11">
+      <c r="E138" s="11">
         <v>4319497</v>
       </c>
+      <c r="F138" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G138" s="11" t="s">
         <v>26</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3244,7 +3244,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3254,7 +3254,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3264,7 +3264,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>43</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3296,7 +3296,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3307,20 +3307,20 @@
       <c r="E144" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F144" s="9" t="s">
-        <v>26</v>
+      <c r="F144" s="9">
+        <v>587279</v>
       </c>
       <c r="G144" s="9">
-        <v>587279</v>
-      </c>
-      <c r="H144" s="9">
         <v>8143981</v>
       </c>
+      <c r="H144" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I144" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3331,20 +3331,20 @@
       <c r="E145" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>26</v>
+      <c r="F145" s="11">
+        <v>3111311</v>
       </c>
       <c r="G145" s="11">
-        <v>3111311</v>
-      </c>
-      <c r="H145" s="11">
         <v>4469293</v>
       </c>
+      <c r="H145" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I145" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3352,23 +3352,23 @@
         <v>41</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="9" t="s">
-        <v>26</v>
+      <c r="E146" s="9">
+        <v>524353</v>
       </c>
       <c r="F146" s="9">
-        <v>524353</v>
+        <v>677716</v>
       </c>
       <c r="G146" s="9">
-        <v>677716</v>
+        <v>1051322</v>
       </c>
       <c r="H146" s="9">
-        <v>1051322</v>
+        <v>2335451</v>
       </c>
       <c r="I146" s="9">
-        <v>2335451</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5383161</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3376,23 +3376,23 @@
         <v>41</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>26</v>
+      <c r="E147" s="11">
+        <v>1675306</v>
       </c>
       <c r="F147" s="11">
-        <v>1675306</v>
+        <v>2235273</v>
       </c>
       <c r="G147" s="11">
-        <v>2235273</v>
-      </c>
-      <c r="H147" s="11">
         <v>3266175</v>
       </c>
+      <c r="H147" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I147" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>30</v>
       </c>
@@ -3400,15 +3400,15 @@
         <v>41</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9" t="s">
-        <v>26</v>
+      <c r="E148" s="9">
+        <v>8792162</v>
       </c>
       <c r="F148" s="9">
-        <v>8792162</v>
-      </c>
-      <c r="G148" s="9">
         <v>21092826</v>
       </c>
+      <c r="G148" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H148" s="9" t="s">
         <v>26</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>31</v>
       </c>
@@ -3424,12 +3424,12 @@
         <v>41</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" s="11">
+      <c r="E149" s="11">
         <v>4305073</v>
       </c>
+      <c r="F149" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G149" s="11" t="s">
         <v>26</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3450,7 +3450,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3460,7 +3460,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3470,7 +3470,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>44</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3502,7 +3502,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>28</v>
       </c>
@@ -3510,23 +3510,23 @@
         <v>25</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
-        <v>26</v>
+      <c r="E155" s="9">
+        <v>513841</v>
       </c>
       <c r="F155" s="9">
-        <v>513841</v>
+        <v>672024</v>
       </c>
       <c r="G155" s="9">
-        <v>672024</v>
+        <v>1033567</v>
       </c>
       <c r="H155" s="9">
-        <v>1033567</v>
+        <v>2782096</v>
       </c>
       <c r="I155" s="9">
-        <v>2782096</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20399759</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>29</v>
       </c>
@@ -3534,23 +3534,23 @@
         <v>25</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11" t="s">
-        <v>26</v>
+      <c r="E156" s="11">
+        <v>1675300</v>
       </c>
       <c r="F156" s="11">
-        <v>1675300</v>
+        <v>2235269</v>
       </c>
       <c r="G156" s="11">
-        <v>2235269</v>
-      </c>
-      <c r="H156" s="11">
         <v>3272018</v>
       </c>
+      <c r="H156" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I156" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>30</v>
       </c>
@@ -3558,15 +3558,15 @@
         <v>25</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
-        <v>26</v>
+      <c r="E157" s="9">
+        <v>9911541</v>
       </c>
       <c r="F157" s="9">
-        <v>9911541</v>
-      </c>
-      <c r="G157" s="9">
         <v>24399215</v>
       </c>
+      <c r="G157" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H157" s="9" t="s">
         <v>26</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>31</v>
       </c>
@@ -3582,12 +3582,12 @@
         <v>25</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="11">
+      <c r="E158" s="11">
         <v>5068614</v>
       </c>
+      <c r="F158" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G158" s="11" t="s">
         <v>26</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3608,7 +3608,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3618,7 +3618,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3628,7 +3628,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
         <v>45</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3660,7 +3660,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>46</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>47</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>48</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>49</v>
       </c>
@@ -3748,95 +3748,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9">
-        <v>1941071</v>
+        <v>4305397</v>
       </c>
       <c r="F168" s="9">
-        <v>4305397</v>
+        <v>4093517</v>
       </c>
       <c r="G168" s="9">
-        <v>4093517</v>
+        <v>13345743</v>
       </c>
       <c r="H168" s="9">
-        <v>13345743</v>
+        <v>21045588</v>
       </c>
       <c r="I168" s="9">
-        <v>21045588</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28043285</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
-        <v>759471</v>
+        <v>1185326</v>
       </c>
       <c r="F169" s="11">
-        <v>1185326</v>
+        <v>2193131</v>
       </c>
       <c r="G169" s="11">
-        <v>2193131</v>
+        <v>3425444</v>
       </c>
       <c r="H169" s="11">
-        <v>3425444</v>
+        <v>18561413</v>
       </c>
       <c r="I169" s="11">
-        <v>18561413</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26038718</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9">
-        <v>1581066</v>
+        <v>2108380</v>
       </c>
       <c r="F170" s="9">
-        <v>2108380</v>
+        <v>2431941</v>
       </c>
       <c r="G170" s="9">
-        <v>2431941</v>
+        <v>2685767</v>
       </c>
       <c r="H170" s="9">
-        <v>2685767</v>
+        <v>3141869</v>
       </c>
       <c r="I170" s="9">
-        <v>3141869</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4181433</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11">
-        <v>140720</v>
+        <v>190825</v>
       </c>
       <c r="F171" s="11">
-        <v>190825</v>
+        <v>206404</v>
       </c>
       <c r="G171" s="11">
-        <v>206404</v>
+        <v>431213</v>
       </c>
       <c r="H171" s="11">
-        <v>431213</v>
+        <v>644995</v>
       </c>
       <c r="I171" s="11">
-        <v>644995</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1022976</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>54</v>
       </c>
@@ -3858,48 +3858,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11">
-        <v>4631392</v>
+        <v>7868833</v>
       </c>
       <c r="F173" s="11">
-        <v>7868833</v>
+        <v>9306522</v>
       </c>
       <c r="G173" s="11">
-        <v>9306522</v>
+        <v>42013267</v>
       </c>
       <c r="H173" s="11">
-        <v>42013267</v>
+        <v>64340404</v>
       </c>
       <c r="I173" s="11">
-        <v>64340404</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52769863</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15">
-        <v>9053720</v>
+        <v>15658761</v>
       </c>
       <c r="F174" s="15">
-        <v>15658761</v>
+        <v>18231515</v>
       </c>
       <c r="G174" s="15">
-        <v>18231515</v>
+        <v>61901434</v>
       </c>
       <c r="H174" s="15">
-        <v>61901434</v>
+        <v>107734269</v>
       </c>
       <c r="I174" s="15">
-        <v>107734269</v>
+        <v>112056275</v>
       </c>
     </row>
   </sheetData>
